--- a/xlsx/董事会_intext.xlsx
+++ b/xlsx/董事会_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>董事会</t>
   </si>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>董事長</t>
+    <t>董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E4%B8%9C%E5%A4%A7%E4%BC%9A</t>
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>利益衝突</t>
+    <t>利益冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E8%B3%93%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>沙賓法案</t>
+    <t>沙宾法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>臺灣證券交易所</t>
+    <t>台湾证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -149,21 +149,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>副董事長</t>
+    <t>副董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>股東大會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>董事會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%A7%E8%A1%8C%E8%91%A3%E4%BA%8B</t>
   </si>
   <si>
@@ -173,9 +167,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%9F%B7%E8%A1%8C%E8%91%A3%E4%BA%8B</t>
   </si>
   <si>
-    <t>非執行董事</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E8%91%A3%E4%BA%8B</t>
   </si>
   <si>
@@ -185,25 +176,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E5%AF%9F%E4%BA%BA</t>
   </si>
   <si>
-    <t>監察人</t>
+    <t>监察人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>總裁</t>
+    <t>总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>副總裁</t>
+    <t>副总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>總經理</t>
+    <t>总经理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -221,31 +212,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>理事長</t>
+    <t>理事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E7%A7%98%E6%9B%B8</t>
   </si>
   <si>
-    <t>公司秘書</t>
+    <t>公司秘书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C%E9%95%B7</t>
   </si>
   <si>
-    <t>品牌長</t>
+    <t>品牌长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E6%89%A7%E8%A1%8C%E5%AE%98</t>
@@ -257,13 +248,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E9%95%B7</t>
   </si>
   <si>
-    <t>財務長</t>
+    <t>财务长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>資訊總監</t>
+    <t>资讯总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8%E4%B8%BB%E7%AE%A1</t>
@@ -275,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E9%95%B7</t>
   </si>
   <si>
-    <t>行銷長</t>
+    <t>行销长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E8%BF%90%E8%90%A5%E5%AE%98</t>
@@ -299,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%84%8F%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>創意總監</t>
+    <t>创意总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E6%8A%80%E6%9C%AF%E5%AE%98</t>
@@ -329,13 +320,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A9%E8%A8%88%E9%83%A8</t>
   </si>
   <si>
-    <t>審計部</t>
+    <t>审计部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -347,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1376,7 @@
         <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G24" t="n">
         <v>7</v>
@@ -1411,10 +1402,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>12</v>
@@ -1440,10 +1431,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -1469,10 +1460,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1498,10 +1489,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1527,10 +1518,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1556,10 +1547,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -1585,10 +1576,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1614,10 +1605,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1643,10 +1634,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1672,10 +1663,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -1701,10 +1692,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1730,10 +1721,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1759,10 +1750,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1788,10 +1779,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1817,10 +1808,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1846,10 +1837,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1875,10 +1866,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1904,10 +1895,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1933,10 +1924,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1962,10 +1953,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1991,10 +1982,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2020,10 +2011,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2049,10 +2040,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2078,10 +2069,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2107,10 +2098,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2136,10 +2127,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2165,10 +2156,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2194,10 +2185,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2223,10 +2214,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2252,10 +2243,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F54" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2281,10 +2272,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2310,10 +2301,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2339,10 +2330,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F57" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2368,10 +2359,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F58" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -2397,10 +2388,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2426,10 +2417,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F60" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
